--- a/java-api/src/main/resources/application.xlsx
+++ b/java-api/src/main/resources/application.xlsx
@@ -8,18 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valebladi/Desktop/team21/arrakis_v3/java-api/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFE7EA8-4094-9E4F-8563-341E6DCD544B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A836EDF-8734-F04E-A055-85B0A5BC8698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="db-bonds-data" sheetId="1" r:id="rId1"/>
-    <sheet name="books" sheetId="4" r:id="rId2"/>
-    <sheet name="user" sheetId="2" r:id="rId3"/>
-    <sheet name="bookUser" sheetId="3" r:id="rId4"/>
-    <sheet name="trade" sheetId="5" r:id="rId5"/>
-    <sheet name="all" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="14" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId4"/>
+    <sheet name="books" sheetId="4" r:id="rId5"/>
+    <sheet name="user" sheetId="2" r:id="rId6"/>
+    <sheet name="bookUser" sheetId="3" r:id="rId7"/>
+    <sheet name="trade" sheetId="5" r:id="rId8"/>
+    <sheet name="all" sheetId="6" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId10"/>
+    <sheet name="Sheet4" sheetId="10" r:id="rId11"/>
+    <sheet name="Sheet6" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet5" sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2239" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3384" uniqueCount="311">
   <si>
     <t>trade_type</t>
   </si>
@@ -693,9 +699,6 @@
     <t>bookname</t>
   </si>
   <si>
-    <t>bookname) VALUES</t>
-  </si>
-  <si>
     <t>'trading_book_1')</t>
   </si>
   <si>
@@ -717,9 +720,6 @@
     <t>Trading_book_4')</t>
   </si>
   <si>
-    <t>INSERT INTO bookUsers(bondholder,</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">INSERT INTO </t>
     </r>
@@ -19742,13 +19742,450 @@
       </rPr>
       <t>;</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">INSERT INTO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>books(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>bookname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>status</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>bondmaturitydate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>issuername</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>isin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>facevalue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>cusip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>bondcurrency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>couponpercent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>unitprice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">VALUES </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>'trading_book_1'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>'active'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>'05-08-21'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>'BNPParibasIssu 4,37% Microsoft Corp (USD)'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>'XS1988387210'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>,NULL,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>'USD'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>4.37</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>,89.56</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>INSERT INTO booksusers(userid,bookid) VALUES</t>
+  </si>
+  <si>
+    <t>rosoft Corp (USD)</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Airbus 3.15%  USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type) VALUES  ('AZ Holdings Inc' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'CORP')    ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   type) VALUES   ('Acme co' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   type) VALUES   ('Sovereign Investments'   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   type) VALUES   ('Astra Trading Ltd'   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   type) VALUES   ('Muncipal Gov Of Orange County'   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   type) VALUES   ('Goldman Sachs'   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'GOVN')    ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   type) VALUES   ('UBS' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   type) VALUES   ('Barclays'    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   type) VALUES   ('British Telecom' </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   type) VALUES   ('Pension Holdings'    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   type) VALUES   ('Zurich Pension fund 4'   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  'SOVN')    ;</t>
+  </si>
+  <si>
+    <t>az@ak.de'</t>
+  </si>
+  <si>
+    <t>'password'</t>
+  </si>
+  <si>
+    <t>INSERT INTO users(bondholder,email,password,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -19912,6 +20349,33 @@
       <color rgb="FF6897BB"/>
       <name val="Courier New"/>
       <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -20211,7 +20675,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -20254,16 +20718,22 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="42" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -20297,6 +20767,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -20617,10 +21088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R94"/>
+  <dimension ref="A1:AS94"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:R1048576"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20636,17 +21107,20 @@
     <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="60.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="51.83203125" customWidth="1"/>
+    <col min="13" max="13" width="18" customWidth="1"/>
     <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="28" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="23.33203125" customWidth="1"/>
+    <col min="20" max="20" width="23.33203125" customWidth="1"/>
+    <col min="21" max="21" width="3.1640625" customWidth="1"/>
+    <col min="22" max="22" width="30.5" customWidth="1"/>
+    <col min="44" max="44" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -20701,8 +21175,50 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="V1" t="s">
+        <v>12</v>
+      </c>
+      <c r="W1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE1" s="6">
+        <v>1000</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH1" s="6">
+        <v>4.37</v>
+      </c>
+      <c r="AI1" s="6">
+        <v>90</v>
+      </c>
+      <c r="AJ1" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -20754,8 +21270,80 @@
       <c r="R2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" s="1">
+        <v>44413</v>
+      </c>
+      <c r="X2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="6">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF2" s="6">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI2" s="8">
+        <v>44413</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL2" s="6">
+        <v>1000</v>
+      </c>
+      <c r="AM2" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO2" s="6">
+        <v>4.37</v>
+      </c>
+      <c r="AP2" s="6">
+        <v>89.56</v>
+      </c>
+      <c r="AQ2" s="6">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS2" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -20807,8 +21395,80 @@
       <c r="R3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="V3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W3" s="1">
+        <v>44413</v>
+      </c>
+      <c r="X3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA3">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="6">
+        <v>3</v>
+      </c>
+      <c r="AD3" s="6">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF3" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI3" s="8">
+        <v>44407</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL3" s="6">
+        <v>900</v>
+      </c>
+      <c r="AM3" s="6">
+        <v>123456780</v>
+      </c>
+      <c r="AN3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO3" s="6">
+        <v>3.15</v>
+      </c>
+      <c r="AP3" s="6">
+        <v>105.77500000000001</v>
+      </c>
+      <c r="AQ3" s="6">
+        <v>2</v>
+      </c>
+      <c r="AR3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS3" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -20863,8 +21523,80 @@
       <c r="R4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="V4" t="s">
+        <v>30</v>
+      </c>
+      <c r="W4" s="1">
+        <v>44407</v>
+      </c>
+      <c r="X4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA4">
+        <v>3</v>
+      </c>
+      <c r="AC4" s="6">
+        <v>4</v>
+      </c>
+      <c r="AD4" s="6">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF4" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI4" s="8">
+        <v>44407</v>
+      </c>
+      <c r="AJ4" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="AK4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL4" s="6">
+        <v>900</v>
+      </c>
+      <c r="AM4" s="6">
+        <v>123456780</v>
+      </c>
+      <c r="AN4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO4" s="6">
+        <v>3.15</v>
+      </c>
+      <c r="AP4" s="6">
+        <v>105.77500000000001</v>
+      </c>
+      <c r="AQ4" s="6">
+        <v>2</v>
+      </c>
+      <c r="AR4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS4" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -20919,8 +21651,65 @@
       <c r="R5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="6">
+        <v>5</v>
+      </c>
+      <c r="AD5" s="6">
+        <v>3</v>
+      </c>
+      <c r="AE5" s="6">
+        <v>4</v>
+      </c>
+      <c r="AF5" s="6">
+        <v>4</v>
+      </c>
+      <c r="AG5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI5" s="8">
+        <v>44469</v>
+      </c>
+      <c r="AJ5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL5" s="6">
+        <v>900</v>
+      </c>
+      <c r="AM5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO5" s="6">
+        <v>2</v>
+      </c>
+      <c r="AP5" s="6">
+        <v>90</v>
+      </c>
+      <c r="AQ5" s="6">
+        <v>3</v>
+      </c>
+      <c r="AR5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AS5" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -20975,8 +21764,80 @@
       <c r="R6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S6">
+        <v>3</v>
+      </c>
+      <c r="T6">
+        <v>4</v>
+      </c>
+      <c r="V6" t="s">
+        <v>36</v>
+      </c>
+      <c r="W6" s="1">
+        <v>44469</v>
+      </c>
+      <c r="X6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA6">
+        <v>4</v>
+      </c>
+      <c r="AC6" s="6">
+        <v>6</v>
+      </c>
+      <c r="AD6" s="6">
+        <v>4</v>
+      </c>
+      <c r="AE6" s="6">
+        <v>3</v>
+      </c>
+      <c r="AF6" s="6">
+        <v>3</v>
+      </c>
+      <c r="AG6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI6" s="8">
+        <v>44407</v>
+      </c>
+      <c r="AJ6" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="AK6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL6" s="6">
+        <v>900</v>
+      </c>
+      <c r="AM6" s="6">
+        <v>123456780</v>
+      </c>
+      <c r="AN6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO6" s="6">
+        <v>3.15</v>
+      </c>
+      <c r="AP6" s="6">
+        <v>105.77500000000001</v>
+      </c>
+      <c r="AQ6" s="6">
+        <v>4</v>
+      </c>
+      <c r="AR6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS6" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -21031,8 +21892,66 @@
       <c r="R7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7">
+        <v>4</v>
+      </c>
+      <c r="T7">
+        <v>3</v>
+      </c>
+      <c r="W7" s="1"/>
+      <c r="AC7" s="6">
+        <v>7</v>
+      </c>
+      <c r="AD7" s="6">
+        <v>3</v>
+      </c>
+      <c r="AE7" s="6">
+        <v>5</v>
+      </c>
+      <c r="AF7" s="6">
+        <v>5</v>
+      </c>
+      <c r="AG7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI7" s="8">
+        <v>44469</v>
+      </c>
+      <c r="AJ7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL7" s="6">
+        <v>900</v>
+      </c>
+      <c r="AM7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO7" s="6">
+        <v>2</v>
+      </c>
+      <c r="AP7" s="6">
+        <v>90</v>
+      </c>
+      <c r="AQ7" s="6">
+        <v>3</v>
+      </c>
+      <c r="AR7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AS7" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -21087,8 +22006,80 @@
       <c r="R8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8">
+        <v>3</v>
+      </c>
+      <c r="T8">
+        <v>5</v>
+      </c>
+      <c r="V8" t="s">
+        <v>36</v>
+      </c>
+      <c r="W8" s="1">
+        <v>44469</v>
+      </c>
+      <c r="X8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA8">
+        <v>5</v>
+      </c>
+      <c r="AC8" s="6">
+        <v>8</v>
+      </c>
+      <c r="AD8" s="6">
+        <v>5</v>
+      </c>
+      <c r="AE8" s="6">
+        <v>6</v>
+      </c>
+      <c r="AF8" s="6">
+        <v>6</v>
+      </c>
+      <c r="AG8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI8" s="8">
+        <v>44411</v>
+      </c>
+      <c r="AJ8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL8" s="6">
+        <v>900</v>
+      </c>
+      <c r="AM8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO8" s="6">
+        <v>3.15</v>
+      </c>
+      <c r="AP8" s="6">
+        <v>98.56</v>
+      </c>
+      <c r="AQ8" s="6">
+        <v>5</v>
+      </c>
+      <c r="AR8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AS8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -21143,8 +22134,80 @@
       <c r="R9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9">
+        <v>5</v>
+      </c>
+      <c r="T9">
+        <v>6</v>
+      </c>
+      <c r="V9" t="s">
+        <v>43</v>
+      </c>
+      <c r="W9" s="1">
+        <v>44411</v>
+      </c>
+      <c r="X9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA9">
+        <v>6</v>
+      </c>
+      <c r="AC9" s="6">
+        <v>9</v>
+      </c>
+      <c r="AD9" s="6">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="6">
+        <v>6</v>
+      </c>
+      <c r="AF9" s="6">
+        <v>6</v>
+      </c>
+      <c r="AG9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI9" s="8">
+        <v>44411</v>
+      </c>
+      <c r="AJ9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL9" s="6">
+        <v>900</v>
+      </c>
+      <c r="AM9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO9" s="6">
+        <v>3.15</v>
+      </c>
+      <c r="AP9" s="6">
+        <v>98.56</v>
+      </c>
+      <c r="AQ9" s="6">
+        <v>5</v>
+      </c>
+      <c r="AR9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AS9" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -21199,8 +22262,80 @@
       <c r="R10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10">
+        <v>5</v>
+      </c>
+      <c r="T10">
+        <v>6</v>
+      </c>
+      <c r="V10" t="s">
+        <v>43</v>
+      </c>
+      <c r="W10" s="1">
+        <v>44411</v>
+      </c>
+      <c r="X10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA10">
+        <v>6</v>
+      </c>
+      <c r="AC10" s="6">
+        <v>10</v>
+      </c>
+      <c r="AD10" s="6">
+        <v>6</v>
+      </c>
+      <c r="AE10" s="6">
+        <v>7</v>
+      </c>
+      <c r="AF10" s="6">
+        <v>7</v>
+      </c>
+      <c r="AG10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI10" s="8">
+        <v>44417</v>
+      </c>
+      <c r="AJ10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL10" s="6">
+        <v>900</v>
+      </c>
+      <c r="AM10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO10" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="AP10" s="6">
+        <v>110.35</v>
+      </c>
+      <c r="AQ10" s="6">
+        <v>6</v>
+      </c>
+      <c r="AR10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS10" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -21255,8 +22390,80 @@
       <c r="R11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11">
+        <v>6</v>
+      </c>
+      <c r="T11">
+        <v>7</v>
+      </c>
+      <c r="V11" t="s">
+        <v>48</v>
+      </c>
+      <c r="W11" s="1">
+        <v>44417</v>
+      </c>
+      <c r="X11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA11">
+        <v>7</v>
+      </c>
+      <c r="AC11" s="6">
+        <v>11</v>
+      </c>
+      <c r="AD11" s="6">
+        <v>6</v>
+      </c>
+      <c r="AE11" s="6">
+        <v>8</v>
+      </c>
+      <c r="AF11" s="6">
+        <v>8</v>
+      </c>
+      <c r="AG11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI11" s="8">
+        <v>44417</v>
+      </c>
+      <c r="AJ11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL11" s="6">
+        <v>900</v>
+      </c>
+      <c r="AM11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO11" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="AP11" s="6">
+        <v>110.35</v>
+      </c>
+      <c r="AQ11" s="6">
+        <v>6</v>
+      </c>
+      <c r="AR11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS11" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -21311,8 +22518,80 @@
       <c r="R12" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12">
+        <v>6</v>
+      </c>
+      <c r="T12">
+        <v>8</v>
+      </c>
+      <c r="V12" t="s">
+        <v>48</v>
+      </c>
+      <c r="W12" s="1">
+        <v>44417</v>
+      </c>
+      <c r="X12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA12">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="6">
+        <v>12</v>
+      </c>
+      <c r="AD12" s="6">
+        <v>7</v>
+      </c>
+      <c r="AE12" s="6">
+        <v>9</v>
+      </c>
+      <c r="AF12" s="6">
+        <v>9</v>
+      </c>
+      <c r="AG12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI12" s="8">
+        <v>44417</v>
+      </c>
+      <c r="AJ12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL12" s="6">
+        <v>900</v>
+      </c>
+      <c r="AM12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO12" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="AP12" s="6">
+        <v>110.35</v>
+      </c>
+      <c r="AQ12" s="6">
+        <v>7</v>
+      </c>
+      <c r="AR12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS12" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -21367,8 +22646,80 @@
       <c r="R13" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13">
+        <v>7</v>
+      </c>
+      <c r="T13">
+        <v>9</v>
+      </c>
+      <c r="V13" t="s">
+        <v>48</v>
+      </c>
+      <c r="W13" s="1">
+        <v>44417</v>
+      </c>
+      <c r="X13" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA13">
+        <v>9</v>
+      </c>
+      <c r="AC13" s="6">
+        <v>13</v>
+      </c>
+      <c r="AD13" s="6">
+        <v>7</v>
+      </c>
+      <c r="AE13" s="6">
+        <v>10</v>
+      </c>
+      <c r="AF13" s="6">
+        <v>10</v>
+      </c>
+      <c r="AG13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI13" s="8">
+        <v>44417</v>
+      </c>
+      <c r="AJ13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL13" s="6">
+        <v>900</v>
+      </c>
+      <c r="AM13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO13" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="AP13" s="6">
+        <v>110.35</v>
+      </c>
+      <c r="AQ13" s="6">
+        <v>7</v>
+      </c>
+      <c r="AR13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS13" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -21423,8 +22774,80 @@
       <c r="R14" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14">
+        <v>7</v>
+      </c>
+      <c r="T14">
+        <v>10</v>
+      </c>
+      <c r="V14" t="s">
+        <v>48</v>
+      </c>
+      <c r="W14" s="1">
+        <v>44417</v>
+      </c>
+      <c r="X14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA14">
+        <v>10</v>
+      </c>
+      <c r="AC14" s="6">
+        <v>14</v>
+      </c>
+      <c r="AD14" s="6">
+        <v>8</v>
+      </c>
+      <c r="AE14" s="6">
+        <v>11</v>
+      </c>
+      <c r="AF14" s="6">
+        <v>11</v>
+      </c>
+      <c r="AG14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI14" s="8">
+        <v>44417</v>
+      </c>
+      <c r="AJ14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL14" s="6">
+        <v>900</v>
+      </c>
+      <c r="AM14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO14" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="AP14" s="6">
+        <v>110.35</v>
+      </c>
+      <c r="AQ14" s="6">
+        <v>8</v>
+      </c>
+      <c r="AR14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS14" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -21479,8 +22902,80 @@
       <c r="R15" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15">
+        <v>8</v>
+      </c>
+      <c r="T15">
+        <v>11</v>
+      </c>
+      <c r="V15" t="s">
+        <v>48</v>
+      </c>
+      <c r="W15" s="1">
+        <v>44417</v>
+      </c>
+      <c r="X15" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA15">
+        <v>11</v>
+      </c>
+      <c r="AC15" s="6">
+        <v>15</v>
+      </c>
+      <c r="AD15" s="6">
+        <v>8</v>
+      </c>
+      <c r="AE15" s="6">
+        <v>12</v>
+      </c>
+      <c r="AF15" s="6">
+        <v>12</v>
+      </c>
+      <c r="AG15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI15" s="8">
+        <v>44417</v>
+      </c>
+      <c r="AJ15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL15" s="6">
+        <v>900</v>
+      </c>
+      <c r="AM15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO15" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="AP15" s="6">
+        <v>110.35</v>
+      </c>
+      <c r="AQ15" s="6">
+        <v>8</v>
+      </c>
+      <c r="AR15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS15" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -21535,8 +23030,80 @@
       <c r="R16" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S16">
+        <v>8</v>
+      </c>
+      <c r="T16">
+        <v>12</v>
+      </c>
+      <c r="V16" t="s">
+        <v>48</v>
+      </c>
+      <c r="W16" s="1">
+        <v>44417</v>
+      </c>
+      <c r="X16" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA16">
+        <v>12</v>
+      </c>
+      <c r="AC16" s="6">
+        <v>16</v>
+      </c>
+      <c r="AD16" s="6">
+        <v>8</v>
+      </c>
+      <c r="AE16" s="6">
+        <v>13</v>
+      </c>
+      <c r="AF16" s="6">
+        <v>13</v>
+      </c>
+      <c r="AG16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI16" s="8">
+        <v>44417</v>
+      </c>
+      <c r="AJ16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL16" s="6">
+        <v>900</v>
+      </c>
+      <c r="AM16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO16" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="AP16" s="6">
+        <v>110.35</v>
+      </c>
+      <c r="AQ16" s="6">
+        <v>8</v>
+      </c>
+      <c r="AR16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS16" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -21591,8 +23158,80 @@
       <c r="R17" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S17">
+        <v>8</v>
+      </c>
+      <c r="T17">
+        <v>13</v>
+      </c>
+      <c r="V17" t="s">
+        <v>48</v>
+      </c>
+      <c r="W17" s="1">
+        <v>44417</v>
+      </c>
+      <c r="X17" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA17">
+        <v>13</v>
+      </c>
+      <c r="AC17" s="6">
+        <v>17</v>
+      </c>
+      <c r="AD17" s="6">
+        <v>9</v>
+      </c>
+      <c r="AE17" s="6">
+        <v>14</v>
+      </c>
+      <c r="AF17" s="6">
+        <v>14</v>
+      </c>
+      <c r="AG17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI17" s="8">
+        <v>44417</v>
+      </c>
+      <c r="AJ17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL17" s="6">
+        <v>900</v>
+      </c>
+      <c r="AM17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO17" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="AP17" s="6">
+        <v>110.35</v>
+      </c>
+      <c r="AQ17" s="6">
+        <v>9</v>
+      </c>
+      <c r="AR17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS17" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -21647,8 +23286,80 @@
       <c r="R18" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S18">
+        <v>9</v>
+      </c>
+      <c r="T18">
+        <v>14</v>
+      </c>
+      <c r="V18" t="s">
+        <v>48</v>
+      </c>
+      <c r="W18" s="1">
+        <v>44417</v>
+      </c>
+      <c r="X18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA18">
+        <v>14</v>
+      </c>
+      <c r="AC18" s="6">
+        <v>18</v>
+      </c>
+      <c r="AD18" s="6">
+        <v>10</v>
+      </c>
+      <c r="AE18" s="6">
+        <v>15</v>
+      </c>
+      <c r="AF18" s="6">
+        <v>15</v>
+      </c>
+      <c r="AG18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI18" s="8">
+        <v>44417</v>
+      </c>
+      <c r="AJ18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL18" s="6">
+        <v>900</v>
+      </c>
+      <c r="AM18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO18" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="AP18" s="6">
+        <v>110.35</v>
+      </c>
+      <c r="AQ18" s="6">
+        <v>10</v>
+      </c>
+      <c r="AR18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS18" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -21703,8 +23414,80 @@
       <c r="R19" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S19">
+        <v>10</v>
+      </c>
+      <c r="T19">
+        <v>15</v>
+      </c>
+      <c r="V19" t="s">
+        <v>48</v>
+      </c>
+      <c r="W19" s="1">
+        <v>44417</v>
+      </c>
+      <c r="X19" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA19">
+        <v>15</v>
+      </c>
+      <c r="AC19" s="6">
+        <v>19</v>
+      </c>
+      <c r="AD19" s="6">
+        <v>10</v>
+      </c>
+      <c r="AE19" s="6">
+        <v>16</v>
+      </c>
+      <c r="AF19" s="6">
+        <v>16</v>
+      </c>
+      <c r="AG19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI19" s="8">
+        <v>44417</v>
+      </c>
+      <c r="AJ19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL19" s="6">
+        <v>900</v>
+      </c>
+      <c r="AM19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO19" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="AP19" s="6">
+        <v>110.35</v>
+      </c>
+      <c r="AQ19" s="6">
+        <v>10</v>
+      </c>
+      <c r="AR19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS19" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -21759,8 +23542,80 @@
       <c r="R20" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S20">
+        <v>10</v>
+      </c>
+      <c r="T20">
+        <v>16</v>
+      </c>
+      <c r="V20" t="s">
+        <v>48</v>
+      </c>
+      <c r="W20" s="1">
+        <v>44417</v>
+      </c>
+      <c r="X20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA20">
+        <v>16</v>
+      </c>
+      <c r="AC20" s="6">
+        <v>20</v>
+      </c>
+      <c r="AD20" s="6">
+        <v>10</v>
+      </c>
+      <c r="AE20" s="6">
+        <v>17</v>
+      </c>
+      <c r="AF20" s="6">
+        <v>17</v>
+      </c>
+      <c r="AG20" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI20" s="8">
+        <v>44417</v>
+      </c>
+      <c r="AJ20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AK20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL20" s="6">
+        <v>900</v>
+      </c>
+      <c r="AM20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO20" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="AP20" s="6">
+        <v>110.35</v>
+      </c>
+      <c r="AQ20" s="6">
+        <v>10</v>
+      </c>
+      <c r="AR20" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS20" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -21815,8 +23670,80 @@
       <c r="R21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S21">
+        <v>10</v>
+      </c>
+      <c r="T21">
+        <v>17</v>
+      </c>
+      <c r="V21" t="s">
+        <v>48</v>
+      </c>
+      <c r="W21" s="1">
+        <v>44417</v>
+      </c>
+      <c r="X21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA21">
+        <v>17</v>
+      </c>
+      <c r="AC21" s="6">
+        <v>21</v>
+      </c>
+      <c r="AD21" s="6">
+        <v>11</v>
+      </c>
+      <c r="AE21" s="6">
+        <v>18</v>
+      </c>
+      <c r="AF21" s="6">
+        <v>18</v>
+      </c>
+      <c r="AG21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH21" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI21" s="8">
+        <v>44414</v>
+      </c>
+      <c r="AJ21" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL21" s="6">
+        <v>690</v>
+      </c>
+      <c r="AM21" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO21" s="6">
+        <v>2.02</v>
+      </c>
+      <c r="AP21" s="6">
+        <v>100.13</v>
+      </c>
+      <c r="AQ21" s="6">
+        <v>11</v>
+      </c>
+      <c r="AR21" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS21" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -21871,8 +23798,80 @@
       <c r="R22" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S22">
+        <v>11</v>
+      </c>
+      <c r="T22">
+        <v>18</v>
+      </c>
+      <c r="V22" t="s">
+        <v>68</v>
+      </c>
+      <c r="W22" s="1">
+        <v>44414</v>
+      </c>
+      <c r="X22" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA22">
+        <v>18</v>
+      </c>
+      <c r="AC22" s="6">
+        <v>22</v>
+      </c>
+      <c r="AD22" s="6">
+        <v>11</v>
+      </c>
+      <c r="AE22" s="6">
+        <v>18</v>
+      </c>
+      <c r="AF22" s="6">
+        <v>18</v>
+      </c>
+      <c r="AG22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI22" s="8">
+        <v>44414</v>
+      </c>
+      <c r="AJ22" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL22" s="6">
+        <v>690</v>
+      </c>
+      <c r="AM22" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO22" s="6">
+        <v>2.02</v>
+      </c>
+      <c r="AP22" s="6">
+        <v>100.13</v>
+      </c>
+      <c r="AQ22" s="6">
+        <v>11</v>
+      </c>
+      <c r="AR22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS22" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -21927,8 +23926,80 @@
       <c r="R23" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S23">
+        <v>11</v>
+      </c>
+      <c r="T23">
+        <v>18</v>
+      </c>
+      <c r="V23" t="s">
+        <v>72</v>
+      </c>
+      <c r="W23" s="1">
+        <v>47839</v>
+      </c>
+      <c r="X23" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA23">
+        <v>19</v>
+      </c>
+      <c r="AC23" s="6">
+        <v>23</v>
+      </c>
+      <c r="AD23" s="6">
+        <v>11</v>
+      </c>
+      <c r="AE23" s="6">
+        <v>18</v>
+      </c>
+      <c r="AF23" s="6">
+        <v>18</v>
+      </c>
+      <c r="AG23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI23" s="8">
+        <v>44414</v>
+      </c>
+      <c r="AJ23" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL23" s="6">
+        <v>690</v>
+      </c>
+      <c r="AM23" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN23" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO23" s="6">
+        <v>2.02</v>
+      </c>
+      <c r="AP23" s="6">
+        <v>100.13</v>
+      </c>
+      <c r="AQ23" s="6">
+        <v>11</v>
+      </c>
+      <c r="AR23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS23" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -21983,8 +24054,65 @@
       <c r="R24" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S24">
+        <v>11</v>
+      </c>
+      <c r="T24">
+        <v>18</v>
+      </c>
+      <c r="AC24" s="6">
+        <v>24</v>
+      </c>
+      <c r="AD24" s="6">
+        <v>11</v>
+      </c>
+      <c r="AE24" s="6">
+        <v>18</v>
+      </c>
+      <c r="AF24" s="6">
+        <v>18</v>
+      </c>
+      <c r="AG24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI24" s="8">
+        <v>44414</v>
+      </c>
+      <c r="AJ24" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK24" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL24" s="6">
+        <v>690</v>
+      </c>
+      <c r="AM24" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO24" s="6">
+        <v>2.02</v>
+      </c>
+      <c r="AP24" s="6">
+        <v>100.13</v>
+      </c>
+      <c r="AQ24" s="6">
+        <v>11</v>
+      </c>
+      <c r="AR24" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS24" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -22039,8 +24167,65 @@
       <c r="R25" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S25">
+        <v>11</v>
+      </c>
+      <c r="T25">
+        <v>18</v>
+      </c>
+      <c r="AC25" s="6">
+        <v>25</v>
+      </c>
+      <c r="AD25" s="6">
+        <v>11</v>
+      </c>
+      <c r="AE25" s="6">
+        <v>19</v>
+      </c>
+      <c r="AF25" s="6">
+        <v>19</v>
+      </c>
+      <c r="AG25" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI25" s="8">
+        <v>11314</v>
+      </c>
+      <c r="AJ25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK25" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL25" s="6">
+        <v>340</v>
+      </c>
+      <c r="AM25" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO25" s="6">
+        <v>1.123</v>
+      </c>
+      <c r="AP25" s="6">
+        <v>98.76</v>
+      </c>
+      <c r="AQ25" s="6">
+        <v>11</v>
+      </c>
+      <c r="AR25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS25" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -22095,8 +24280,65 @@
       <c r="R26" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S26">
+        <v>11</v>
+      </c>
+      <c r="T26">
+        <v>19</v>
+      </c>
+      <c r="AC26" s="6">
+        <v>26</v>
+      </c>
+      <c r="AD26" s="6">
+        <v>11</v>
+      </c>
+      <c r="AE26" s="6">
+        <v>19</v>
+      </c>
+      <c r="AF26" s="6">
+        <v>19</v>
+      </c>
+      <c r="AG26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI26" s="8">
+        <v>11314</v>
+      </c>
+      <c r="AJ26" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL26" s="6">
+        <v>340</v>
+      </c>
+      <c r="AM26" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO26" s="6">
+        <v>1.123</v>
+      </c>
+      <c r="AP26" s="6">
+        <v>98.76</v>
+      </c>
+      <c r="AQ26" s="6">
+        <v>11</v>
+      </c>
+      <c r="AR26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS26" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -22151,8 +24393,65 @@
       <c r="R27" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S27">
+        <v>11</v>
+      </c>
+      <c r="T27">
+        <v>19</v>
+      </c>
+      <c r="AC27" s="6">
+        <v>27</v>
+      </c>
+      <c r="AD27" s="6">
+        <v>11</v>
+      </c>
+      <c r="AE27" s="6">
+        <v>19</v>
+      </c>
+      <c r="AF27" s="6">
+        <v>19</v>
+      </c>
+      <c r="AG27" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI27" s="8">
+        <v>11314</v>
+      </c>
+      <c r="AJ27" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL27" s="6">
+        <v>340</v>
+      </c>
+      <c r="AM27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO27" s="6">
+        <v>1.123</v>
+      </c>
+      <c r="AP27" s="6">
+        <v>98.76</v>
+      </c>
+      <c r="AQ27" s="6">
+        <v>11</v>
+      </c>
+      <c r="AR27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS27" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -22207,8 +24506,38 @@
       <c r="R28" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S28">
+        <v>11</v>
+      </c>
+      <c r="T28">
+        <v>19</v>
+      </c>
+      <c r="AC28" s="6">
+        <v>28</v>
+      </c>
+      <c r="AD28" s="6">
+        <v>11</v>
+      </c>
+      <c r="AE28" s="6">
+        <v>19</v>
+      </c>
+      <c r="AF28" s="6">
+        <v>19</v>
+      </c>
+      <c r="AG28" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH28" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI28" s="8">
+        <v>11314</v>
+      </c>
+      <c r="AJ28" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:45" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -22263,28 +24592,4864 @@
       <c r="R29" t="s">
         <v>70</v>
       </c>
+      <c r="S29">
+        <v>11</v>
+      </c>
+      <c r="T29">
+        <v>19</v>
+      </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C36" s="2"/>
     </row>
     <row r="94" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H94" t="str" cm="1">
-        <f t="array" ref="H94">_xlfn.CONCAT(AB64:AB64&amp;",")</f>
+        <f t="array" ref="H94">_xlfn.CONCAT(AA64:AA64&amp;",")</f>
         <v>,</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1343B9-23AC-5D41-A08C-6310B82FBEDC}">
+  <dimension ref="A1:A18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0FE71FF-E7EF-9841-8177-8FF76627320C}">
+  <dimension ref="A1:S29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" activeCellId="9" sqref="Q1:Q1048576 O1:O1048576 N1:N1048576 M1:M1048576 L1:L1048576 K1:K1048576 J1:J1048576 H1:H1048576 I1:I1048576 G1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44412</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1">
+        <v>44329</v>
+      </c>
+      <c r="G2">
+        <v>90</v>
+      </c>
+      <c r="H2">
+        <v>4.37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2">
+        <v>1000</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="1">
+        <v>44413</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1">
+        <v>44412</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1">
+        <v>44231</v>
+      </c>
+      <c r="G3">
+        <v>89.56</v>
+      </c>
+      <c r="H3">
+        <v>4.37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3">
+        <v>1000</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="1">
+        <v>44413</v>
+      </c>
+      <c r="O3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>44431</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1">
+        <v>44329</v>
+      </c>
+      <c r="G4">
+        <v>105.77500000000001</v>
+      </c>
+      <c r="H4">
+        <v>3.15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <v>123456780</v>
+      </c>
+      <c r="K4">
+        <v>900</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="1">
+        <v>44407</v>
+      </c>
+      <c r="O4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>900</v>
+      </c>
+      <c r="D5" s="1">
+        <v>44449</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1">
+        <v>44231</v>
+      </c>
+      <c r="G5">
+        <v>105.77500000000001</v>
+      </c>
+      <c r="H5">
+        <v>3.15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5">
+        <v>123456780</v>
+      </c>
+      <c r="K5">
+        <v>900</v>
+      </c>
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="1">
+        <v>44407</v>
+      </c>
+      <c r="O5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1">
+        <v>44431</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1">
+        <v>44329</v>
+      </c>
+      <c r="G6">
+        <v>90</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6">
+        <v>900</v>
+      </c>
+      <c r="L6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="1">
+        <v>44469</v>
+      </c>
+      <c r="O6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>37</v>
+      </c>
+      <c r="R6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>44431</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1">
+        <v>44329</v>
+      </c>
+      <c r="G7">
+        <v>105.77500000000001</v>
+      </c>
+      <c r="H7">
+        <v>3.15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7">
+        <v>123456780</v>
+      </c>
+      <c r="K7">
+        <v>900</v>
+      </c>
+      <c r="L7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="1">
+        <v>44407</v>
+      </c>
+      <c r="O7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7" t="s">
+        <v>39</v>
+      </c>
+      <c r="S7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44431</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1">
+        <v>44329</v>
+      </c>
+      <c r="G8">
+        <v>90</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8">
+        <v>900</v>
+      </c>
+      <c r="L8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="1">
+        <v>44469</v>
+      </c>
+      <c r="O8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R8" t="s">
+        <v>38</v>
+      </c>
+      <c r="S8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>60</v>
+      </c>
+      <c r="D9" s="1">
+        <v>44466</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1">
+        <v>44231</v>
+      </c>
+      <c r="G9">
+        <v>98.56</v>
+      </c>
+      <c r="H9">
+        <v>3.15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9">
+        <v>900</v>
+      </c>
+      <c r="L9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" s="1">
+        <v>44411</v>
+      </c>
+      <c r="O9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>44</v>
+      </c>
+      <c r="R9" t="s">
+        <v>45</v>
+      </c>
+      <c r="S9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1">
+        <v>44431</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1">
+        <v>44431</v>
+      </c>
+      <c r="G10">
+        <v>98.56</v>
+      </c>
+      <c r="H10">
+        <v>3.15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10">
+        <v>900</v>
+      </c>
+      <c r="L10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" s="1">
+        <v>44411</v>
+      </c>
+      <c r="O10" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>44</v>
+      </c>
+      <c r="R10" t="s">
+        <v>45</v>
+      </c>
+      <c r="S10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11">
+        <v>1100</v>
+      </c>
+      <c r="D11" s="1">
+        <v>44466</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="1">
+        <v>44466</v>
+      </c>
+      <c r="G11">
+        <v>110.35</v>
+      </c>
+      <c r="H11">
+        <v>0.75</v>
+      </c>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11">
+        <v>900</v>
+      </c>
+      <c r="L11" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" s="1">
+        <v>44417</v>
+      </c>
+      <c r="O11" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>50</v>
+      </c>
+      <c r="R11" t="s">
+        <v>51</v>
+      </c>
+      <c r="S11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>900</v>
+      </c>
+      <c r="D12" s="1">
+        <v>44467</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="1">
+        <v>44467</v>
+      </c>
+      <c r="G12">
+        <v>110.35</v>
+      </c>
+      <c r="H12">
+        <v>0.75</v>
+      </c>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12">
+        <v>900</v>
+      </c>
+      <c r="L12" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" t="s">
+        <v>48</v>
+      </c>
+      <c r="N12" s="1">
+        <v>44417</v>
+      </c>
+      <c r="O12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>50</v>
+      </c>
+      <c r="R12" t="s">
+        <v>51</v>
+      </c>
+      <c r="S12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13">
+        <v>2000</v>
+      </c>
+      <c r="D13" s="1">
+        <v>44468</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="1">
+        <v>44468</v>
+      </c>
+      <c r="G13">
+        <v>110.35</v>
+      </c>
+      <c r="H13">
+        <v>0.75</v>
+      </c>
+      <c r="I13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13">
+        <v>900</v>
+      </c>
+      <c r="L13" t="s">
+        <v>53</v>
+      </c>
+      <c r="M13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N13" s="1">
+        <v>44417</v>
+      </c>
+      <c r="O13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>50</v>
+      </c>
+      <c r="R13" t="s">
+        <v>54</v>
+      </c>
+      <c r="S13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14">
+        <v>2000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>44469</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="1">
+        <v>44469</v>
+      </c>
+      <c r="G14">
+        <v>110.35</v>
+      </c>
+      <c r="H14">
+        <v>0.75</v>
+      </c>
+      <c r="I14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14">
+        <v>900</v>
+      </c>
+      <c r="L14" t="s">
+        <v>55</v>
+      </c>
+      <c r="M14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N14" s="1">
+        <v>44417</v>
+      </c>
+      <c r="O14" t="s">
+        <v>23</v>
+      </c>
+      <c r="P14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>50</v>
+      </c>
+      <c r="R14" t="s">
+        <v>54</v>
+      </c>
+      <c r="S14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="1">
+        <v>44470</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="1">
+        <v>44470</v>
+      </c>
+      <c r="G15">
+        <v>110.35</v>
+      </c>
+      <c r="H15">
+        <v>0.75</v>
+      </c>
+      <c r="I15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15">
+        <v>900</v>
+      </c>
+      <c r="L15" t="s">
+        <v>56</v>
+      </c>
+      <c r="M15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N15" s="1">
+        <v>44417</v>
+      </c>
+      <c r="O15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>50</v>
+      </c>
+      <c r="R15" t="s">
+        <v>57</v>
+      </c>
+      <c r="S15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <v>900</v>
+      </c>
+      <c r="D16" s="1">
+        <v>43740</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="1">
+        <v>43740</v>
+      </c>
+      <c r="G16">
+        <v>110.35</v>
+      </c>
+      <c r="H16">
+        <v>0.75</v>
+      </c>
+      <c r="I16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16">
+        <v>900</v>
+      </c>
+      <c r="L16" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" t="s">
+        <v>48</v>
+      </c>
+      <c r="N16" s="1">
+        <v>44417</v>
+      </c>
+      <c r="O16" t="s">
+        <v>23</v>
+      </c>
+      <c r="P16" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>50</v>
+      </c>
+      <c r="R16" t="s">
+        <v>57</v>
+      </c>
+      <c r="S16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17">
+        <v>1900</v>
+      </c>
+      <c r="D17" s="1">
+        <v>43741</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="1">
+        <v>43741</v>
+      </c>
+      <c r="G17">
+        <v>110.35</v>
+      </c>
+      <c r="H17">
+        <v>0.75</v>
+      </c>
+      <c r="I17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17">
+        <v>900</v>
+      </c>
+      <c r="L17" t="s">
+        <v>59</v>
+      </c>
+      <c r="M17" t="s">
+        <v>48</v>
+      </c>
+      <c r="N17" s="1">
+        <v>44417</v>
+      </c>
+      <c r="O17" t="s">
+        <v>23</v>
+      </c>
+      <c r="P17" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>50</v>
+      </c>
+      <c r="R17" t="s">
+        <v>57</v>
+      </c>
+      <c r="S17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18">
+        <v>600</v>
+      </c>
+      <c r="D18" s="1">
+        <v>43377</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="1">
+        <v>43377</v>
+      </c>
+      <c r="G18">
+        <v>110.35</v>
+      </c>
+      <c r="H18">
+        <v>0.75</v>
+      </c>
+      <c r="I18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18">
+        <v>900</v>
+      </c>
+      <c r="L18" t="s">
+        <v>60</v>
+      </c>
+      <c r="M18" t="s">
+        <v>48</v>
+      </c>
+      <c r="N18" s="1">
+        <v>44417</v>
+      </c>
+      <c r="O18" t="s">
+        <v>23</v>
+      </c>
+      <c r="P18" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>50</v>
+      </c>
+      <c r="R18" t="s">
+        <v>61</v>
+      </c>
+      <c r="S18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>600</v>
+      </c>
+      <c r="D19" s="1">
+        <v>43743</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="1">
+        <v>43743</v>
+      </c>
+      <c r="G19">
+        <v>110.35</v>
+      </c>
+      <c r="H19">
+        <v>0.75</v>
+      </c>
+      <c r="I19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19">
+        <v>900</v>
+      </c>
+      <c r="L19" t="s">
+        <v>62</v>
+      </c>
+      <c r="M19" t="s">
+        <v>48</v>
+      </c>
+      <c r="N19" s="1">
+        <v>44417</v>
+      </c>
+      <c r="O19" t="s">
+        <v>23</v>
+      </c>
+      <c r="P19" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>50</v>
+      </c>
+      <c r="R19" t="s">
+        <v>63</v>
+      </c>
+      <c r="S19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20">
+        <v>700</v>
+      </c>
+      <c r="D20" s="1">
+        <v>44353</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="1">
+        <v>44353</v>
+      </c>
+      <c r="G20">
+        <v>110.35</v>
+      </c>
+      <c r="H20">
+        <v>0.75</v>
+      </c>
+      <c r="I20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20">
+        <v>900</v>
+      </c>
+      <c r="L20" t="s">
+        <v>64</v>
+      </c>
+      <c r="M20" t="s">
+        <v>48</v>
+      </c>
+      <c r="N20" s="1">
+        <v>44417</v>
+      </c>
+      <c r="O20" t="s">
+        <v>23</v>
+      </c>
+      <c r="P20" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>50</v>
+      </c>
+      <c r="R20" t="s">
+        <v>63</v>
+      </c>
+      <c r="S20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21">
+        <v>1300</v>
+      </c>
+      <c r="D21" s="1">
+        <v>44476</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="1">
+        <v>40823</v>
+      </c>
+      <c r="G21">
+        <v>110.35</v>
+      </c>
+      <c r="H21">
+        <v>0.75</v>
+      </c>
+      <c r="I21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21">
+        <v>900</v>
+      </c>
+      <c r="L21" t="s">
+        <v>65</v>
+      </c>
+      <c r="M21" t="s">
+        <v>48</v>
+      </c>
+      <c r="N21" s="1">
+        <v>44417</v>
+      </c>
+      <c r="O21" t="s">
+        <v>23</v>
+      </c>
+      <c r="P21" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>50</v>
+      </c>
+      <c r="R21" t="s">
+        <v>63</v>
+      </c>
+      <c r="S21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>60</v>
+      </c>
+      <c r="D22" s="1">
+        <v>44466</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="1">
+        <v>40943</v>
+      </c>
+      <c r="G22">
+        <v>100.13</v>
+      </c>
+      <c r="H22">
+        <v>2.02</v>
+      </c>
+      <c r="I22" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22">
+        <v>690</v>
+      </c>
+      <c r="L22" t="s">
+        <v>67</v>
+      </c>
+      <c r="M22" t="s">
+        <v>68</v>
+      </c>
+      <c r="N22" s="1">
+        <v>44414</v>
+      </c>
+      <c r="O22" t="s">
+        <v>23</v>
+      </c>
+      <c r="P22" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>44</v>
+      </c>
+      <c r="R22" t="s">
+        <v>70</v>
+      </c>
+      <c r="S22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>50</v>
+      </c>
+      <c r="D23" s="1">
+        <v>44431</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="1">
+        <v>41144</v>
+      </c>
+      <c r="G23">
+        <v>100.13</v>
+      </c>
+      <c r="H23">
+        <v>2.02</v>
+      </c>
+      <c r="I23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" t="s">
+        <v>66</v>
+      </c>
+      <c r="K23">
+        <v>690</v>
+      </c>
+      <c r="L23" t="s">
+        <v>67</v>
+      </c>
+      <c r="M23" t="s">
+        <v>68</v>
+      </c>
+      <c r="N23" s="1">
+        <v>44414</v>
+      </c>
+      <c r="O23" t="s">
+        <v>23</v>
+      </c>
+      <c r="P23" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>44</v>
+      </c>
+      <c r="R23" t="s">
+        <v>70</v>
+      </c>
+      <c r="S23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24">
+        <v>75</v>
+      </c>
+      <c r="D24" s="1">
+        <v>44466</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="1">
+        <v>41309</v>
+      </c>
+      <c r="G24">
+        <v>100.13</v>
+      </c>
+      <c r="H24">
+        <v>2.02</v>
+      </c>
+      <c r="I24" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" t="s">
+        <v>66</v>
+      </c>
+      <c r="K24">
+        <v>690</v>
+      </c>
+      <c r="L24" t="s">
+        <v>67</v>
+      </c>
+      <c r="M24" t="s">
+        <v>68</v>
+      </c>
+      <c r="N24" s="1">
+        <v>44414</v>
+      </c>
+      <c r="O24" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>44</v>
+      </c>
+      <c r="R24" t="s">
+        <v>70</v>
+      </c>
+      <c r="S24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25">
+        <v>50</v>
+      </c>
+      <c r="D25" s="1">
+        <v>44431</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="1">
+        <v>41874</v>
+      </c>
+      <c r="G25">
+        <v>100.13</v>
+      </c>
+      <c r="H25">
+        <v>2.02</v>
+      </c>
+      <c r="I25" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" t="s">
+        <v>66</v>
+      </c>
+      <c r="K25">
+        <v>690</v>
+      </c>
+      <c r="L25" t="s">
+        <v>67</v>
+      </c>
+      <c r="M25" t="s">
+        <v>68</v>
+      </c>
+      <c r="N25" s="1">
+        <v>44414</v>
+      </c>
+      <c r="O25" t="s">
+        <v>23</v>
+      </c>
+      <c r="P25" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>44</v>
+      </c>
+      <c r="R25" t="s">
+        <v>70</v>
+      </c>
+      <c r="S25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <v>300</v>
+      </c>
+      <c r="D26" s="1">
+        <v>44466</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="1">
+        <v>42404</v>
+      </c>
+      <c r="G26">
+        <v>98.76</v>
+      </c>
+      <c r="H26">
+        <v>1.123</v>
+      </c>
+      <c r="I26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" t="s">
+        <v>66</v>
+      </c>
+      <c r="K26">
+        <v>340</v>
+      </c>
+      <c r="L26" t="s">
+        <v>71</v>
+      </c>
+      <c r="M26" t="s">
+        <v>72</v>
+      </c>
+      <c r="N26" s="1">
+        <v>47839</v>
+      </c>
+      <c r="O26" t="s">
+        <v>23</v>
+      </c>
+      <c r="P26" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>44</v>
+      </c>
+      <c r="R26" t="s">
+        <v>70</v>
+      </c>
+      <c r="S26">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <v>300</v>
+      </c>
+      <c r="D27" s="1">
+        <v>44431</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="1">
+        <v>41144</v>
+      </c>
+      <c r="G27">
+        <v>98.76</v>
+      </c>
+      <c r="H27">
+        <v>1.123</v>
+      </c>
+      <c r="I27" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" t="s">
+        <v>66</v>
+      </c>
+      <c r="K27">
+        <v>340</v>
+      </c>
+      <c r="L27" t="s">
+        <v>71</v>
+      </c>
+      <c r="M27" t="s">
+        <v>72</v>
+      </c>
+      <c r="N27" s="1">
+        <v>47839</v>
+      </c>
+      <c r="O27" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>44</v>
+      </c>
+      <c r="R27" t="s">
+        <v>70</v>
+      </c>
+      <c r="S27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28">
+        <v>300</v>
+      </c>
+      <c r="D28" s="1">
+        <v>44466</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="1">
+        <v>41309</v>
+      </c>
+      <c r="G28">
+        <v>98.76</v>
+      </c>
+      <c r="H28">
+        <v>1.123</v>
+      </c>
+      <c r="I28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" t="s">
+        <v>66</v>
+      </c>
+      <c r="K28">
+        <v>340</v>
+      </c>
+      <c r="L28" t="s">
+        <v>71</v>
+      </c>
+      <c r="M28" t="s">
+        <v>72</v>
+      </c>
+      <c r="N28" s="1">
+        <v>47839</v>
+      </c>
+      <c r="O28" t="s">
+        <v>23</v>
+      </c>
+      <c r="P28" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>44</v>
+      </c>
+      <c r="R28" t="s">
+        <v>70</v>
+      </c>
+      <c r="S28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29">
+        <v>300</v>
+      </c>
+      <c r="D29" s="1">
+        <v>44431</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="1">
+        <v>42239</v>
+      </c>
+      <c r="G29">
+        <v>98.76</v>
+      </c>
+      <c r="H29">
+        <v>1.123</v>
+      </c>
+      <c r="I29" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" t="s">
+        <v>66</v>
+      </c>
+      <c r="K29">
+        <v>340</v>
+      </c>
+      <c r="L29" t="s">
+        <v>71</v>
+      </c>
+      <c r="M29" t="s">
+        <v>72</v>
+      </c>
+      <c r="N29" s="1">
+        <v>47839</v>
+      </c>
+      <c r="O29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P29" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>44</v>
+      </c>
+      <c r="R29" t="s">
+        <v>70</v>
+      </c>
+      <c r="S29">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA3770B0-0E17-DE45-AC3F-6DE66226DE8F}">
+  <dimension ref="A1:N20"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L20" sqref="G1:L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>90</v>
+      </c>
+      <c r="B2">
+        <v>4.37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>1000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1">
+        <v>44413</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>89.56</v>
+      </c>
+      <c r="B3">
+        <v>4.37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>1000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1">
+        <v>44413</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>105.77500000000001</v>
+      </c>
+      <c r="B4">
+        <v>3.15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>123456780</v>
+      </c>
+      <c r="E4">
+        <v>900</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1">
+        <v>44407</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>90</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5">
+        <v>900</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="1">
+        <v>44469</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>90</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6">
+        <v>900</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="1">
+        <v>44469</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>98.56</v>
+      </c>
+      <c r="B7">
+        <v>3.15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7">
+        <v>900</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="1">
+        <v>44411</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>110.35</v>
+      </c>
+      <c r="B8">
+        <v>0.75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8">
+        <v>900</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="1">
+        <v>44417</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>110.35</v>
+      </c>
+      <c r="B9">
+        <v>0.75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9">
+        <v>900</v>
+      </c>
+      <c r="F9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="1">
+        <v>44417</v>
+      </c>
+      <c r="I9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>110.35</v>
+      </c>
+      <c r="B10">
+        <v>0.75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10">
+        <v>900</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="1">
+        <v>44417</v>
+      </c>
+      <c r="I10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10">
+        <v>9</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>110.35</v>
+      </c>
+      <c r="B11">
+        <v>0.75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11">
+        <v>900</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="1">
+        <v>44417</v>
+      </c>
+      <c r="I11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>110.35</v>
+      </c>
+      <c r="B12">
+        <v>0.75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12">
+        <v>900</v>
+      </c>
+      <c r="F12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="1">
+        <v>44417</v>
+      </c>
+      <c r="I12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12">
+        <v>11</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>110.35</v>
+      </c>
+      <c r="B13">
+        <v>0.75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13">
+        <v>900</v>
+      </c>
+      <c r="F13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="1">
+        <v>44417</v>
+      </c>
+      <c r="I13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13">
+        <v>12</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>110.35</v>
+      </c>
+      <c r="B14">
+        <v>0.75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14">
+        <v>900</v>
+      </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="1">
+        <v>44417</v>
+      </c>
+      <c r="I14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14">
+        <v>13</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>110.35</v>
+      </c>
+      <c r="B15">
+        <v>0.75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15">
+        <v>900</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="1">
+        <v>44417</v>
+      </c>
+      <c r="I15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" t="s">
+        <v>50</v>
+      </c>
+      <c r="L15">
+        <v>14</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>110.35</v>
+      </c>
+      <c r="B16">
+        <v>0.75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16">
+        <v>900</v>
+      </c>
+      <c r="F16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="1">
+        <v>44417</v>
+      </c>
+      <c r="I16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16">
+        <v>15</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>110.35</v>
+      </c>
+      <c r="B17">
+        <v>0.75</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17">
+        <v>900</v>
+      </c>
+      <c r="F17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="1">
+        <v>44417</v>
+      </c>
+      <c r="I17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17">
+        <v>16</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>110.35</v>
+      </c>
+      <c r="B18">
+        <v>0.75</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18">
+        <v>900</v>
+      </c>
+      <c r="F18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="1">
+        <v>44417</v>
+      </c>
+      <c r="I18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18">
+        <v>17</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>100.13</v>
+      </c>
+      <c r="B19">
+        <v>2.02</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19">
+        <v>690</v>
+      </c>
+      <c r="F19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="1">
+        <v>44414</v>
+      </c>
+      <c r="I19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19">
+        <v>18</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>98.76</v>
+      </c>
+      <c r="B20">
+        <v>1.123</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20">
+        <v>340</v>
+      </c>
+      <c r="F20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="1">
+        <v>47839</v>
+      </c>
+      <c r="I20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20">
+        <v>19</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A144DF5-AB81-BA40-808A-9B4554E445F3}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView zoomScale="193" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB0ABED-B4F1-144F-AC25-73DDC1542A84}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="E1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="E2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="E3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="E4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="E5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="E6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="E7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="E8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="E9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="E10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B11" t="s">
+        <v>306</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="E11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" display="az@ak.de" xr:uid="{4BD84346-A9A6-BA46-B187-4CA6AC0C1155}"/>
+    <hyperlink ref="C2:C11" r:id="rId2" display="az@ak.de" xr:uid="{1F19C8FB-DF35-504C-A579-FD525D4500ED}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC66B807-8772-BF41-8F63-F40C38ED5FCF}">
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1">
+        <v>44413</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44413</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>123456780</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1">
+        <v>44407</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>123456780</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1">
+        <v>44407</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="1">
+        <v>44469</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>123456780</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1">
+        <v>44407</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1">
+        <v>44469</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="1">
+        <v>44411</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="1">
+        <v>44417</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="1">
+        <v>44417</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="1">
+        <v>44417</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="1">
+        <v>44417</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="1">
+        <v>44417</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="1">
+        <v>44417</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="1">
+        <v>44417</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="1">
+        <v>44417</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="1">
+        <v>44417</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="1">
+        <v>44417</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="1">
+        <v>44417</v>
+      </c>
+      <c r="F20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="1">
+        <v>44414</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="1">
+        <v>47839</v>
+      </c>
+      <c r="F22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="1">
+        <v>47839</v>
+      </c>
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29BB8E1-A2DD-B042-B209-A24D7E96D3BA}">
+  <dimension ref="A1:M29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>90</v>
+      </c>
+      <c r="C2">
+        <v>4.37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2">
+        <v>1000</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="1">
+        <v>44413</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>89.56</v>
+      </c>
+      <c r="C3">
+        <v>4.37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3">
+        <v>1000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1">
+        <v>44413</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>105.77500000000001</v>
+      </c>
+      <c r="C4">
+        <v>3.15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>123456780</v>
+      </c>
+      <c r="F4">
+        <v>900</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="1">
+        <v>44407</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>105.77500000000001</v>
+      </c>
+      <c r="C5">
+        <v>3.15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>123456780</v>
+      </c>
+      <c r="F5">
+        <v>900</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="1">
+        <v>44407</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>90</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6">
+        <v>900</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="1">
+        <v>44469</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>105.77500000000001</v>
+      </c>
+      <c r="C7">
+        <v>3.15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>123456780</v>
+      </c>
+      <c r="F7">
+        <v>900</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="1">
+        <v>44407</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>90</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8">
+        <v>900</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="1">
+        <v>44469</v>
+      </c>
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>98.56</v>
+      </c>
+      <c r="C9">
+        <v>3.15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9">
+        <v>900</v>
+      </c>
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="1">
+        <v>44411</v>
+      </c>
+      <c r="J9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>98.56</v>
+      </c>
+      <c r="C10">
+        <v>3.15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10">
+        <v>900</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="1">
+        <v>44411</v>
+      </c>
+      <c r="J10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>110.35</v>
+      </c>
+      <c r="C11">
+        <v>0.75</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11">
+        <v>900</v>
+      </c>
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="1">
+        <v>44417</v>
+      </c>
+      <c r="J11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>110.35</v>
+      </c>
+      <c r="C12">
+        <v>0.75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12">
+        <v>900</v>
+      </c>
+      <c r="G12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="1">
+        <v>44417</v>
+      </c>
+      <c r="J12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>110.35</v>
+      </c>
+      <c r="C13">
+        <v>0.75</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13">
+        <v>900</v>
+      </c>
+      <c r="G13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="1">
+        <v>44417</v>
+      </c>
+      <c r="J13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>110.35</v>
+      </c>
+      <c r="C14">
+        <v>0.75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14">
+        <v>900</v>
+      </c>
+      <c r="G14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="1">
+        <v>44417</v>
+      </c>
+      <c r="J14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" t="s">
+        <v>50</v>
+      </c>
+      <c r="M14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>110.35</v>
+      </c>
+      <c r="C15">
+        <v>0.75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15">
+        <v>900</v>
+      </c>
+      <c r="G15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="1">
+        <v>44417</v>
+      </c>
+      <c r="J15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>110.35</v>
+      </c>
+      <c r="C16">
+        <v>0.75</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16">
+        <v>900</v>
+      </c>
+      <c r="G16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="1">
+        <v>44417</v>
+      </c>
+      <c r="J16" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>110.35</v>
+      </c>
+      <c r="C17">
+        <v>0.75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17">
+        <v>900</v>
+      </c>
+      <c r="G17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="1">
+        <v>44417</v>
+      </c>
+      <c r="J17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" t="s">
+        <v>49</v>
+      </c>
+      <c r="L17" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>110.35</v>
+      </c>
+      <c r="C18">
+        <v>0.75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18">
+        <v>900</v>
+      </c>
+      <c r="G18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="1">
+        <v>44417</v>
+      </c>
+      <c r="J18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" t="s">
+        <v>49</v>
+      </c>
+      <c r="L18" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>110.35</v>
+      </c>
+      <c r="C19">
+        <v>0.75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19">
+        <v>900</v>
+      </c>
+      <c r="G19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="1">
+        <v>44417</v>
+      </c>
+      <c r="J19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" t="s">
+        <v>49</v>
+      </c>
+      <c r="L19" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>110.35</v>
+      </c>
+      <c r="C20">
+        <v>0.75</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20">
+        <v>900</v>
+      </c>
+      <c r="G20" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" s="1">
+        <v>44417</v>
+      </c>
+      <c r="J20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" t="s">
+        <v>49</v>
+      </c>
+      <c r="L20" t="s">
+        <v>50</v>
+      </c>
+      <c r="M20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>110.35</v>
+      </c>
+      <c r="C21">
+        <v>0.75</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21">
+        <v>900</v>
+      </c>
+      <c r="G21" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="1">
+        <v>44417</v>
+      </c>
+      <c r="J21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" t="s">
+        <v>49</v>
+      </c>
+      <c r="L21" t="s">
+        <v>50</v>
+      </c>
+      <c r="M21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>100.13</v>
+      </c>
+      <c r="C22">
+        <v>2.02</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22">
+        <v>690</v>
+      </c>
+      <c r="G22" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" s="1">
+        <v>44414</v>
+      </c>
+      <c r="J22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" t="s">
+        <v>69</v>
+      </c>
+      <c r="L22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>100.13</v>
+      </c>
+      <c r="C23">
+        <v>2.02</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23">
+        <v>690</v>
+      </c>
+      <c r="G23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" t="s">
+        <v>68</v>
+      </c>
+      <c r="I23" s="1">
+        <v>44414</v>
+      </c>
+      <c r="J23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" t="s">
+        <v>69</v>
+      </c>
+      <c r="L23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>100.13</v>
+      </c>
+      <c r="C24">
+        <v>2.02</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24">
+        <v>690</v>
+      </c>
+      <c r="G24" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24" s="1">
+        <v>44414</v>
+      </c>
+      <c r="J24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" t="s">
+        <v>69</v>
+      </c>
+      <c r="L24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>100.13</v>
+      </c>
+      <c r="C25">
+        <v>2.02</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25">
+        <v>690</v>
+      </c>
+      <c r="G25" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" t="s">
+        <v>68</v>
+      </c>
+      <c r="I25" s="1">
+        <v>44414</v>
+      </c>
+      <c r="J25" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" t="s">
+        <v>69</v>
+      </c>
+      <c r="L25" t="s">
+        <v>44</v>
+      </c>
+      <c r="M25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>98.76</v>
+      </c>
+      <c r="C26">
+        <v>1.123</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26">
+        <v>340</v>
+      </c>
+      <c r="G26" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" t="s">
+        <v>72</v>
+      </c>
+      <c r="I26" s="1">
+        <v>47839</v>
+      </c>
+      <c r="J26" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" t="s">
+        <v>69</v>
+      </c>
+      <c r="L26" t="s">
+        <v>44</v>
+      </c>
+      <c r="M26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>98.76</v>
+      </c>
+      <c r="C27">
+        <v>1.123</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27">
+        <v>340</v>
+      </c>
+      <c r="G27" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27" s="1">
+        <v>47839</v>
+      </c>
+      <c r="J27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" t="s">
+        <v>69</v>
+      </c>
+      <c r="L27" t="s">
+        <v>44</v>
+      </c>
+      <c r="M27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>98.76</v>
+      </c>
+      <c r="C28">
+        <v>1.123</v>
+      </c>
+      <c r="D28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28">
+        <v>340</v>
+      </c>
+      <c r="G28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" t="s">
+        <v>72</v>
+      </c>
+      <c r="I28" s="1">
+        <v>47839</v>
+      </c>
+      <c r="J28" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" t="s">
+        <v>69</v>
+      </c>
+      <c r="L28" t="s">
+        <v>44</v>
+      </c>
+      <c r="M28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>98.76</v>
+      </c>
+      <c r="C29">
+        <v>1.123</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29">
+        <v>340</v>
+      </c>
+      <c r="G29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" t="s">
+        <v>72</v>
+      </c>
+      <c r="I29" s="1">
+        <v>47839</v>
+      </c>
+      <c r="J29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" t="s">
+        <v>69</v>
+      </c>
+      <c r="L29" t="s">
+        <v>44</v>
+      </c>
+      <c r="M29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W60"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A57" sqref="A31:A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24283,7 +31448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F61"/>
   <sheetViews>
@@ -25281,12 +32446,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G17" sqref="A15:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25295,7 +32460,7 @@
     <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>208</v>
       </c>
@@ -25303,788 +32468,816 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>38</v>
       </c>
       <c r="B8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
       <c r="B9" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>45</v>
       </c>
       <c r="B10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>51</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>51</v>
       </c>
       <c r="B12" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>54</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>54</v>
       </c>
       <c r="B14" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>57</v>
       </c>
       <c r="B15" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>57</v>
       </c>
       <c r="B16" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>8</v>
+      </c>
+      <c r="G16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>57</v>
       </c>
       <c r="B17" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>61</v>
       </c>
       <c r="B18" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>9</v>
+      </c>
+      <c r="G18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>63</v>
       </c>
       <c r="B19" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>63</v>
       </c>
       <c r="B20" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>63</v>
       </c>
       <c r="B21" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>70</v>
       </c>
       <c r="B22" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>11</v>
+      </c>
+      <c r="G22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>70</v>
       </c>
       <c r="B23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <v>11</v>
+      </c>
+      <c r="G23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>70</v>
       </c>
       <c r="B24" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <v>11</v>
+      </c>
+      <c r="G24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>70</v>
       </c>
       <c r="B25" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>11</v>
+      </c>
+      <c r="G25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>70</v>
       </c>
       <c r="B26" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <v>11</v>
+      </c>
+      <c r="G26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>70</v>
       </c>
       <c r="B27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <v>11</v>
+      </c>
+      <c r="G27">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>70</v>
       </c>
       <c r="B28" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <v>11</v>
+      </c>
+      <c r="G28">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>70</v>
       </c>
       <c r="B29" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <v>11</v>
+      </c>
+      <c r="G29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>218</v>
-      </c>
-      <c r="B32" t="s">
+        <v>290</v>
+      </c>
+      <c r="C32" t="str">
+        <f>_xlfn.CONCAT("(",F2,",",G2,")")</f>
+        <v>(1,1)</v>
+      </c>
+      <c r="D32" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" t="s">
         <v>210</v>
       </c>
-      <c r="C32" t="s">
-        <v>136</v>
-      </c>
-      <c r="D32" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" t="s">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>290</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" ref="C33:C59" si="0">_xlfn.CONCAT("(",F3,",",G3,")")</f>
+        <v>(1,2)</v>
+      </c>
+      <c r="D33" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>290</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>(2,3)</v>
+      </c>
+      <c r="D34" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" t="s">
         <v>211</v>
       </c>
-      <c r="F32" t="s">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>290</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>(2,3)</v>
+      </c>
+      <c r="D35" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>218</v>
-      </c>
-      <c r="B33" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" t="s">
-        <v>138</v>
-      </c>
-      <c r="D33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="E35" t="s">
         <v>211</v>
       </c>
-      <c r="F33" t="s">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>290</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>(3,4)</v>
+      </c>
+      <c r="D36" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>218</v>
-      </c>
-      <c r="B34" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" t="s">
-        <v>139</v>
-      </c>
-      <c r="D34" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="E36" t="s">
         <v>212</v>
       </c>
-      <c r="F34" t="s">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>290</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>(4,3)</v>
+      </c>
+      <c r="D37" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>218</v>
-      </c>
-      <c r="B35" t="s">
-        <v>210</v>
-      </c>
-      <c r="C35" t="s">
-        <v>140</v>
-      </c>
-      <c r="D35" t="s">
-        <v>73</v>
-      </c>
-      <c r="E35" t="s">
-        <v>212</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="E37" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>290</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>(3,5)</v>
+      </c>
+      <c r="D38" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>218</v>
-      </c>
-      <c r="B36" t="s">
-        <v>210</v>
-      </c>
-      <c r="C36" t="s">
-        <v>141</v>
-      </c>
-      <c r="D36" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="E38" t="s">
         <v>213</v>
       </c>
-      <c r="F36" t="s">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>290</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>(5,6)</v>
+      </c>
+      <c r="D39" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>218</v>
-      </c>
-      <c r="B37" t="s">
-        <v>210</v>
-      </c>
-      <c r="C37" t="s">
-        <v>142</v>
-      </c>
-      <c r="D37" t="s">
-        <v>73</v>
-      </c>
-      <c r="E37" t="s">
-        <v>212</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="E39" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>290</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>(5,6)</v>
+      </c>
+      <c r="D40" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>218</v>
-      </c>
-      <c r="B38" t="s">
-        <v>210</v>
-      </c>
-      <c r="C38" t="s">
-        <v>141</v>
-      </c>
-      <c r="D38" t="s">
-        <v>73</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="E40" t="s">
         <v>214</v>
       </c>
-      <c r="F38" t="s">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>290</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>(6,7)</v>
+      </c>
+      <c r="D41" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>218</v>
-      </c>
-      <c r="B39" t="s">
-        <v>210</v>
-      </c>
-      <c r="C39" t="s">
-        <v>143</v>
-      </c>
-      <c r="D39" t="s">
-        <v>73</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="E41" t="s">
         <v>215</v>
       </c>
-      <c r="F39" t="s">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>290</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>(6,8)</v>
+      </c>
+      <c r="D42" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>218</v>
-      </c>
-      <c r="B40" t="s">
-        <v>210</v>
-      </c>
-      <c r="C40" t="s">
-        <v>143</v>
-      </c>
-      <c r="D40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="E42" t="s">
         <v>215</v>
       </c>
-      <c r="F40" t="s">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>290</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>(7,9)</v>
+      </c>
+      <c r="D43" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>218</v>
-      </c>
-      <c r="B41" t="s">
-        <v>210</v>
-      </c>
-      <c r="C41" t="s">
-        <v>144</v>
-      </c>
-      <c r="D41" t="s">
-        <v>73</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="E43" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>290</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>(7,10)</v>
+      </c>
+      <c r="D44" t="s">
+        <v>133</v>
+      </c>
+      <c r="E44" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>290</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>(8,11)</v>
+      </c>
+      <c r="D45" t="s">
+        <v>133</v>
+      </c>
+      <c r="E45" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>290</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>(8,12)</v>
+      </c>
+      <c r="D46" t="s">
+        <v>133</v>
+      </c>
+      <c r="E46" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>290</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>(8,13)</v>
+      </c>
+      <c r="D47" t="s">
+        <v>133</v>
+      </c>
+      <c r="E47" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>290</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>(9,14)</v>
+      </c>
+      <c r="D48" t="s">
+        <v>133</v>
+      </c>
+      <c r="E48" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>290</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,15)</v>
+      </c>
+      <c r="D49" t="s">
+        <v>133</v>
+      </c>
+      <c r="E49" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>290</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,16)</v>
+      </c>
+      <c r="D50" t="s">
+        <v>133</v>
+      </c>
+      <c r="E50" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>290</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,17)</v>
+      </c>
+      <c r="D51" t="s">
+        <v>133</v>
+      </c>
+      <c r="E51" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>290</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>(11,18)</v>
+      </c>
+      <c r="D52" t="s">
+        <v>133</v>
+      </c>
+      <c r="E52" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>290</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v>(11,18)</v>
+      </c>
+      <c r="D53" t="s">
+        <v>133</v>
+      </c>
+      <c r="E53" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>290</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v>(11,18)</v>
+      </c>
+      <c r="D54" t="s">
+        <v>133</v>
+      </c>
+      <c r="E54" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>290</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>(11,18)</v>
+      </c>
+      <c r="D55" t="s">
+        <v>133</v>
+      </c>
+      <c r="E55" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>290</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>(11,19)</v>
+      </c>
+      <c r="D56" t="s">
+        <v>133</v>
+      </c>
+      <c r="E56" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>290</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v>(11,19)</v>
+      </c>
+      <c r="D57" t="s">
+        <v>133</v>
+      </c>
+      <c r="E57" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>290</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v>(11,19)</v>
+      </c>
+      <c r="D58" t="s">
+        <v>133</v>
+      </c>
+      <c r="E58" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>290</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v>(11,19)</v>
+      </c>
+      <c r="D59" t="s">
+        <v>133</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="F41" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>218</v>
-      </c>
-      <c r="B42" t="s">
-        <v>210</v>
-      </c>
-      <c r="C42" t="s">
-        <v>144</v>
-      </c>
-      <c r="D42" t="s">
-        <v>73</v>
-      </c>
-      <c r="E42" t="s">
-        <v>216</v>
-      </c>
-      <c r="F42" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>218</v>
-      </c>
-      <c r="B43" t="s">
-        <v>210</v>
-      </c>
-      <c r="C43" t="s">
-        <v>146</v>
-      </c>
-      <c r="D43" t="s">
-        <v>73</v>
-      </c>
-      <c r="E43" t="s">
-        <v>216</v>
-      </c>
-      <c r="F43" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>218</v>
-      </c>
-      <c r="B44" t="s">
-        <v>210</v>
-      </c>
-      <c r="C44" t="s">
-        <v>146</v>
-      </c>
-      <c r="D44" t="s">
-        <v>73</v>
-      </c>
-      <c r="E44" t="s">
-        <v>216</v>
-      </c>
-      <c r="F44" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>218</v>
-      </c>
-      <c r="B45" t="s">
-        <v>210</v>
-      </c>
-      <c r="C45" t="s">
-        <v>147</v>
-      </c>
-      <c r="D45" t="s">
-        <v>73</v>
-      </c>
-      <c r="E45" t="s">
-        <v>216</v>
-      </c>
-      <c r="F45" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>218</v>
-      </c>
-      <c r="B46" t="s">
-        <v>210</v>
-      </c>
-      <c r="C46" t="s">
-        <v>147</v>
-      </c>
-      <c r="D46" t="s">
-        <v>73</v>
-      </c>
-      <c r="E46" t="s">
-        <v>216</v>
-      </c>
-      <c r="F46" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>218</v>
-      </c>
-      <c r="B47" t="s">
-        <v>210</v>
-      </c>
-      <c r="C47" t="s">
-        <v>147</v>
-      </c>
-      <c r="D47" t="s">
-        <v>73</v>
-      </c>
-      <c r="E47" t="s">
-        <v>216</v>
-      </c>
-      <c r="F47" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>218</v>
-      </c>
-      <c r="B48" t="s">
-        <v>210</v>
-      </c>
-      <c r="C48" t="s">
-        <v>148</v>
-      </c>
-      <c r="D48" t="s">
-        <v>73</v>
-      </c>
-      <c r="E48" t="s">
-        <v>216</v>
-      </c>
-      <c r="F48" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>218</v>
-      </c>
-      <c r="B49" t="s">
-        <v>210</v>
-      </c>
-      <c r="C49" t="s">
-        <v>149</v>
-      </c>
-      <c r="D49" t="s">
-        <v>73</v>
-      </c>
-      <c r="E49" t="s">
-        <v>216</v>
-      </c>
-      <c r="F49" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>218</v>
-      </c>
-      <c r="B50" t="s">
-        <v>210</v>
-      </c>
-      <c r="C50" t="s">
-        <v>149</v>
-      </c>
-      <c r="D50" t="s">
-        <v>73</v>
-      </c>
-      <c r="E50" t="s">
-        <v>216</v>
-      </c>
-      <c r="F50" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>218</v>
-      </c>
-      <c r="B51" t="s">
-        <v>210</v>
-      </c>
-      <c r="C51" t="s">
-        <v>149</v>
-      </c>
-      <c r="D51" t="s">
-        <v>73</v>
-      </c>
-      <c r="E51" t="s">
-        <v>216</v>
-      </c>
-      <c r="F51" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>218</v>
-      </c>
-      <c r="B52" t="s">
-        <v>210</v>
-      </c>
-      <c r="C52" t="s">
-        <v>150</v>
-      </c>
-      <c r="D52" t="s">
-        <v>73</v>
-      </c>
-      <c r="E52" t="s">
-        <v>215</v>
-      </c>
-      <c r="F52" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>218</v>
-      </c>
-      <c r="B53" t="s">
-        <v>210</v>
-      </c>
-      <c r="C53" t="s">
-        <v>150</v>
-      </c>
-      <c r="D53" t="s">
-        <v>73</v>
-      </c>
-      <c r="E53" t="s">
-        <v>215</v>
-      </c>
-      <c r="F53" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>218</v>
-      </c>
-      <c r="B54" t="s">
-        <v>210</v>
-      </c>
-      <c r="C54" t="s">
-        <v>150</v>
-      </c>
-      <c r="D54" t="s">
-        <v>73</v>
-      </c>
-      <c r="E54" t="s">
-        <v>215</v>
-      </c>
-      <c r="F54" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>218</v>
-      </c>
-      <c r="B55" t="s">
-        <v>210</v>
-      </c>
-      <c r="C55" t="s">
-        <v>150</v>
-      </c>
-      <c r="D55" t="s">
-        <v>73</v>
-      </c>
-      <c r="E55" t="s">
-        <v>215</v>
-      </c>
-      <c r="F55" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>218</v>
-      </c>
-      <c r="B56" t="s">
-        <v>210</v>
-      </c>
-      <c r="C56" t="s">
-        <v>150</v>
-      </c>
-      <c r="D56" t="s">
-        <v>73</v>
-      </c>
-      <c r="E56" t="s">
-        <v>215</v>
-      </c>
-      <c r="F56" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>218</v>
-      </c>
-      <c r="B57" t="s">
-        <v>210</v>
-      </c>
-      <c r="C57" t="s">
-        <v>150</v>
-      </c>
-      <c r="D57" t="s">
-        <v>73</v>
-      </c>
-      <c r="E57" t="s">
-        <v>215</v>
-      </c>
-      <c r="F57" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>218</v>
-      </c>
-      <c r="B58" t="s">
-        <v>210</v>
-      </c>
-      <c r="C58" t="s">
-        <v>150</v>
-      </c>
-      <c r="D58" t="s">
-        <v>73</v>
-      </c>
-      <c r="E58" t="s">
-        <v>215</v>
-      </c>
-      <c r="F58" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>218</v>
-      </c>
-      <c r="B59" t="s">
-        <v>210</v>
-      </c>
-      <c r="C59" t="s">
-        <v>150</v>
-      </c>
-      <c r="D59" t="s">
-        <v>73</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F59" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -26093,12 +33286,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Z62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:Z62"/>
+      <selection activeCell="H7" sqref="B4:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29390,7 +36583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D22E87-C1E4-9D4F-8A5C-6F44CE431930}">
   <dimension ref="A1:A116"/>
   <sheetViews>
@@ -29402,676 +36595,570 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1343B9-23AC-5D41-A08C-6310B82FBEDC}">
-  <dimension ref="A1:A18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>